--- a/projects/test_building/input/Scenario_CoolingTechnology_Input_Labor.xlsx
+++ b/projects/test_building/input/Scenario_CoolingTechnology_Input_Labor.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA735A0-F753-DC49-A139-DCE3C4FE25C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF18C10-2F0E-B745-814B-D0BB5B2D56B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>id_region</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>person-day</t>
-  </si>
-  <si>
-    <t>id_building_type</t>
   </si>
   <si>
     <t>2010</t>
@@ -249,11 +246,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AS2" totalsRowShown="0">
-  <autoFilter ref="A1:AS2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AR2" totalsRowShown="0">
+  <autoFilter ref="A1:AR2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="44">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_region"/>
-    <tableColumn id="1" xr3:uid="{C7A3EF24-1361-2D49-A2CA-3ED6FF002DD2}" name="id_building_type"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_cooling_technology" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="unit"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2010"/>
@@ -565,34 +561,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS2"/>
+  <dimension ref="A1:AR2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.1640625" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.1640625" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -622,13 +617,13 @@
         <v>14</v>
       </c>
       <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
         <v>15</v>
-      </c>
-      <c r="O1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" t="s">
-        <v>3</v>
       </c>
       <c r="Q1" t="s">
         <v>16</v>
@@ -714,23 +709,20 @@
       <c r="AR1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
       <c r="E2">
         <v>1</v>
       </c>
@@ -849,9 +841,6 @@
         <v>1</v>
       </c>
       <c r="AR2">
-        <v>1</v>
-      </c>
-      <c r="AS2">
         <v>1</v>
       </c>
     </row>
